--- a/PS5 (1).xlsx
+++ b/PS5 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/gustavolck_al_insper_edu_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E9E71B-BA13-4F09-A904-8703160761E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{274EDB6F-EE68-46A8-93DB-0143C5BD4E8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="872">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1984,6 +1984,20 @@
     <t>dungeons &amp;amp; dragons: dark alliance será lançado em 22 de junho para ps4 e ps5; trailer e gameplay - https://t.co/kyufmurqsk https://t.co/zej6llplh9</t>
   </si>
   <si>
+    <t>se alguém me perguntar hoje se estou feliz com o ps5, eu vou dizer que não.
+então está triste?
+também não.
+ta um nao fede nem cheira.
+atualmente só no aguardo de #discoelysium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sim, está muito fraco, mas muitíssimo fraco. espero que eles estejam fazendo isso pra tentar gerar "surpresa" porque a sony não está me agradando muito do jeito que está. </t>
+  </si>
+  <si>
+    <t>@ignbrasil @mariananeryf me ajuda @danielreen
+ps5 esta em segundo no ranking de vendas, ok. mais e o monstro chamado switch? vem destruindo tudo em vendas ja faz 4 anos e não para mais... cade a media fazendo chamada desse fenômeno? reclames do plim plim 💰💰💰💰💰</t>
+  </si>
+  <si>
     <t>Teste</t>
   </si>
   <si>
@@ -2798,12 +2812,249 @@
     <t>rt @pastorxbox: hdmi 2.1 não é necessário para o ps5, diz gerente de produto da sony 😝
 pra fazer 4k fake com resolução dinâmica realmente n…</t>
   </si>
+  <si>
+    <t>sobre o fim da loja do ps3.
+espero que a sony futuramente faça uma categoria de "ps3 clássicos", assim como tem na loja do ps3 jogos clássicos de ps1 e ps2. rodando os jogos de ps3 via emulação no ps5.
+ou que pelo menos, permita o download de jogos de ps3 via psnow via emulação.</t>
+  </si>
+  <si>
+    <t>@ps3brasil pelo jeito só vou conseguir comprar o ps5 quando lançarem o ps6!!!! tá foda essa geração</t>
+  </si>
+  <si>
+    <t>2021 e tem mlk que ainda paga pau pra gráfico.
+isso não deixou de ser relevante tipo, uns 5 anos atrás quando todo jogo ja tem gráfico bom o suficiente, e toda grande inovação em gráfico é so um efeito novo inútil?
+fora que um pc de 2019 ja vence o xbosta e ps5 em grafico, mds.</t>
+  </si>
+  <si>
+    <t>@playstation_br lança ps5, mas me lança o ps4 com o controle uma merda, pior é o meu que ta na garantia e não consigo nem mandar pra conserto ou troca.</t>
+  </si>
+  <si>
+    <t>a sony desperdiçou o ps5 com o projota, e a fiat com a pocah</t>
+  </si>
+  <si>
+    <t>@samuhell na vdd a história vai ter um final feliz sim. vai sair mais remaster desses games de ps3 pro ps5. só que o final feliz vai ser pra sony que vai vender jogo velho com preço novinho em folha. a sony, sonystando. demon souls é só o início da leva de remaster/remake</t>
+  </si>
+  <si>
+    <t>rt @nideologia: "xbox series s é uma ameaça real para o ps5"
+sonysta bota na cabeça que jogo é só gráfico. ser mais barato e rodar todos o…</t>
+  </si>
+  <si>
+    <t>@gattsof @antonioaca @id_folkvang @nacaow @eli_lamartine @frankfangames1 isso é ruim pra quem tem ps3 e vita mas pra quem tem um ps4/ps5 não muda nada.</t>
+  </si>
+  <si>
+    <t>@ocervejeiro_ q nada duff, a sony vai vir com uma retro monstro no ps5 2.0 slim pro, anota aí.</t>
+  </si>
+  <si>
+    <t>@milico777 eu tava pensando em pegar um ps5 quando saisse um slim.
+mudei de ideia.</t>
+  </si>
+  <si>
+    <t>não é tão ruim, agora o ps5 tem um motivo pra ficar guardado quando não funcionar mais https://t.co/xwtycqaai9</t>
+  </si>
+  <si>
+    <t>5 dias sem meu switch e ontem passou por minha cabeça (tíra esse de mim!) comprar um ps5...e hj meu instagram só tem anúncio de ps5 ?!?!</t>
+  </si>
+  <si>
+    <t>@fuck_off_matt confesso que a minha surpresa reside no fato da loja digital ainda vender jogos do ps3, que já foi descontinuado a 4 anos! justificaria uma certa comoção se houvesse retrocompatibilidade com o ps4 ou ps5... mas não vejo muita razão prática em promover a venda de jogos do ps3 não.</t>
+  </si>
+  <si>
+    <t>pensando sobre abandonar a ideia do ps5 e comprar um pc</t>
+  </si>
+  <si>
+    <t>@colucci_up quando sair a versão pra ps5 eu não compro pq odeio rpg em primeira pessoa</t>
+  </si>
+  <si>
+    <t>acho q essa geração vo de xbox fodase, sem condições ficar pagando 350 reais em jogo de ps5. prefiro comprar um xcaixa e pagar um gamepass com 300 jogo e boa, sony tá virando uma filha da puta igual a nintendo</t>
+  </si>
+  <si>
+    <t>@kenoh_00 a microsoft pelo menos tem uma abordagem mais honesta de "olha isso é um aluguel" com o gamepass. a sony tinha obrigação de emular isso tudo no ps5</t>
+  </si>
+  <si>
+    <t>nesse começo de geração vai levar umas porradas com o ps5 , espero que isso sirva pra mudar algumas coisas importantes dentro da empresa</t>
+  </si>
+  <si>
+    <t>@notfilipe cê acostuma rápido,e qual controle c pegou,o de ps5 ou xbox?</t>
+  </si>
+  <si>
+    <t>@benxxmoraes simm, e tipo você que tem o ps5 ele tá funcionando de maneira mais decente então não seria um prejuízo tão grande</t>
+  </si>
+  <si>
+    <t>@kevin_jhairo @playstation_br meu brother, creio q vc seja fã da plataforma com certeza. meu conselho? pega um series s ou x para jogar, qnd sair uma versão mais atualizada do ps5 vc compra. bom que já vai ter mais jogos do q atualmente.
+uma ideia, apenas. n sei quais seus gostos.</t>
+  </si>
+  <si>
+    <t>🔴🎮 ao vivo! vem jogar contra o rodrigo no apanhando dos fãs no mortal kombat 11
+https://t.co/sbbkuscdt9
+https://t.co/sbbkuscdt9
+https://t.co/sbbkuscdt9
+#ps4 #mortalkombat #ps5 #xbox #xboxseriesx #irmaospiologo https://t.co/elnhrypkhb</t>
+  </si>
+  <si>
+    <t>@caio_gunnar duvido muito que essas porradas sejam minimamente efetivas , ps5 tá vendendo que nem agua e os jogos no pc vão trazer uma nova grande renda para a sony .</t>
+  </si>
+  <si>
+    <t>quase 4 meses de ps5 e já deu problema de drift no dualsense</t>
+  </si>
+  <si>
+    <t>@jhukte eu tô guardando dinheiro a bastante tempo também, eu pensei que ia abaixar com o ps5 mas só aumentou... uma amiga minha conseguiu pegar um por 2000 e poucos no final do ano, eu esperei igual trouxa pq só ficou mais caro</t>
+  </si>
+  <si>
+    <t>@detonat13435182 @fuck_off_matt exatamente o que eu falo.
+mal tenho tempo de jogar o ps5 e ou os games de ps4. estou com um backlog enorme, tu acha que vou me importar com ps3 ?
+já foi, já joguei o que queria na época.
+ninguém ligava pra ps3 até ontem, do nada virou o vídeo game mais usado e jogado.
+sei...</t>
+  </si>
+  <si>
+    <t>@magazineluiza 3 meses esperando meu ps5. todos os prazos expirados e sem resposta da loja. alguém me ajuda?</t>
+  </si>
+  <si>
+    <t>tá ai um dos motivos que não vou comprar um ps5 ou outros consoles da sony, os caras odeiam hoje em dia a retrocompatibilidade e até estão fechando lojas de consoles antigos como a do ps3 e psvita sem nem siquer poder comprar esses jogos no ps4 e ps5.
+deprimente. https://t.co/ibp1wtash5</t>
+  </si>
+  <si>
+    <t>toda vez que alguém pergunta se eu jogo alguma coisa eu lembro que em fev/2020 eu tava olhando um ps4 por 1600 e com rumores do ps5 ia pra uns 1400/1200. dai o dólar começou a subir e hoje custa 2600 👍🏻</t>
+  </si>
+  <si>
+    <t>como deverá ser a nova nintendo switch. juntando-a à ps5, consigo ouvir a carteira a chorar. https://t.co/gawcfbarb2</t>
+  </si>
+  <si>
+    <t>@jogador76_ @ceythian @playstation aí você falou tudo. gamer que é gamer será sempre a favor dos jogos. por isso é inegável que a abordagem do xbox em oferecer retrocompatibilidade até com o primeiro xbox é sensacional. e sem contar que tem melhorias gráficas fazendo uso do novo hardware. ps5 deveria ter retro.</t>
+  </si>
+  <si>
+    <t>@xboxbr não, pq ps5 é melhor</t>
+  </si>
+  <si>
+    <t>@sonystasensato se ele meteu o foda se no ps4 que e  mais de 115 milhoes  de pessoas e boto plus colection so la imagine  ps3 e os outros kkk custava nada pelomenos  ter posto retro com ps1 ou ps2 no ps4 e ps5 e ter feito pelomenos psnow com jogos de ps3 ou um por dos exclusivos de ps3 pra ps4</t>
+  </si>
+  <si>
+    <t>@gorvanna entao a mensagem é que eu vou voltar no tempo ter um ps5 com games com preço de pc wtf kkkkkkkk</t>
+  </si>
+  <si>
+    <t>espero q a sony esteja fazendo a jogada da microsoft. vazou a notícia da ps store fechando, os fãs tão chorando. ela surge falando q vai poder continuar baixando e que o ps5 roda tudo. a grande heroína</t>
+  </si>
+  <si>
+    <t>@bbloliveira ai depende muito do que você gosta, pc tem mais variedade, ps5 ta só com alguns jogos ainda</t>
+  </si>
+  <si>
+    <t>rt @xcorujao: agora conta uma novidade, porque essa do #ps5 com #xbox so sonysta não ve.
+https://t.co/6vpj6xsu9a</t>
+  </si>
+  <si>
+    <t>@luiz_fernandorj tem um cara que comprou 3 ps5 e todos eles deram o msm bug :/</t>
+  </si>
+  <si>
+    <t>@xzisaazx um ps5 mas ta mt caro</t>
+  </si>
+  <si>
+    <t>@naked_dragonn @mandogko @drakesincero1 ué mas os jogos de ps1/2 dá para jogar no xbox por emulador kkk no ps5 não?
+evo kkkkkkkkkkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>ah gente eu achei lindinho, o ps5 é feio pra porra https://t.co/d50d3o9fvm</t>
+  </si>
+  <si>
+    <t>agora conta uma novidade, porque essa do #ps5 com #xbox so sonysta não ve.
+https://t.co/6vpj6xsu9a</t>
+  </si>
+  <si>
+    <t>estou ao vivo em #cyberpunk2077  cap 01 - #xboxone
+https://t.co/t31bq5tqrb via @facebookgaming
+#games @playstation_br #ps5  #games #gamer
+@cdprojektred https://t.co/mie1xqpmby</t>
+  </si>
+  <si>
+    <t>todotorto:
+eu te amo tanto q se fosse pra escolher entre você e um ps5
+eu até sentiria sua falta
+levi passivinho morde fronha websub papai?:
+?
+eu n vou te julgar pois te trocaria por um xbox one ❤</t>
+  </si>
+  <si>
+    <t>quando decido comprar o ps5 tá tudo em falta...</t>
+  </si>
+  <si>
+    <t>@oedgama vacina e reestoque do ps5</t>
+  </si>
+  <si>
+    <t>@cid_highwind02 eu decepcionei a mim msm kkkkkk só n consegui jogar sabe
+mas tá nos planos pra jogar agr no ps5</t>
+  </si>
+  <si>
+    <t>rt @vih8p: #xboxseriesx    //   #ps5
+brincadeiraaaaaa... 😂😶 https://t.co/c3gvnvg11l</t>
+  </si>
+  <si>
+    <t>a falta de estoque já é descaração da microsoft
+uma empresa de tecnologia como essa deveria ter contrato reservas e reservas de peças pra produção
+ai o pessoal larga a mão e compra ps5 quando aparece e não sabe porque</t>
+  </si>
+  <si>
+    <t>"xbox series s é uma ameaça real para o ps5"
+sonysta bota na cabeça que jogo é só gráfico. ser mais barato e rodar todos os jogos vale bem mais a pena pro consumidor médio https://t.co/th06jvdxee</t>
+  </si>
+  <si>
+    <t>@yvestronda tacar fogo no ps5</t>
+  </si>
+  <si>
+    <t>@taciotenorio8 quem é vivo sempre aparece... continua mesma decepção, estava desde dezembro sem jogar comprei ps5 mês passado e continua decepção de sempre</t>
+  </si>
+  <si>
+    <t>show
+discord https://t.co/q6oxummoxf
+siga nossas midias sociais e acompanhe memes, noticias, vídeos e lives
+@aldoriagames
+#memes #humor #meme #nostalgia #ps5 #ps4 #xbox #nintendo #ps2 https://t.co/slrdf439fn</t>
+  </si>
+  <si>
+    <t>rt @regidante: vídeo novo!
+https://t.co/zh1nik1spk
+#residentevil6 #residentevil #gaming #ps5 #xboxseriesx #residentevil25thanniversary #r…</t>
+  </si>
+  <si>
+    <t>@marcus_vf7 o mic é usb, então eu conectei em uma das entradas da parte de trás do ps5 e foi detectado de boas. as únicas coisas tristes de resolver esses problemas no próprio ps é que nada do streamlabs (aviso de seguidor, barrinha de meta, etc) vai aparecer :(</t>
+  </si>
+  <si>
+    <t>@trembxlaa @mxdinafn @vxnixy calma ae rpz scrim open véi seis tao tretando eu sei q é dificil pegar top com um pc e ps5</t>
+  </si>
+  <si>
+    <t>@ubisoftbrasil o evento decorar a vila para mim no ps5 esta bugado não  consigo concluir. são  5 decorações so aparece 3, quando saio da minha cidade e vou para outro lugar aparece no mapa volto para cidade some.
+foi um evento feito nas coxas..</t>
+  </si>
+  <si>
+    <t>fall guys: temporada 4 já está disponível
+https://t.co/ogwdlqof41 #pc #ps4 #noticias #ps5 #fallguysultimateknockout #playstation5 #playstation5</t>
+  </si>
+  <si>
+    <t>#xboxseriesx    //   #ps5
+brincadeiraaaaaa... 😂😶 https://t.co/c3gvnvg11l</t>
+  </si>
+  <si>
+    <t>@gabrieltrincha @thirufio @drakesincero1 opa, fps vale não? olha pra ponte então. ps5 e series x. os "fios" estruturais lá estão nítidos no xbox series x e no ps5 ele tá todo cagado. ué...</t>
+  </si>
+  <si>
+    <t>@matheus_luzzz pelo que eu ouvi falar o jogo ta rodando bem no ps5 mas ainda ta crashando bastante</t>
+  </si>
+  <si>
+    <t>@misterj56569698 @fuck_off_matt começou com 10,3 teraflops, depois caiu para 9,2 (sem overclock), então, "misteriosamente" afirmarem que o clock base do ps5 é de 1825mhz (mesmo clock que o series x, sendo assim, o ps5 teria 8,4 teraflops), depois, foram diminuindo ainda mais para chegar em 4,5 teraflops.</t>
+  </si>
+  <si>
+    <t>@fuck_off_matt são tão bostas e fracos de argumento q ele diz q o ps5 "tem 6 a 9 tf" ué como assim então que dizer q eu posso comprar um ps5 q venha com 6 tf e meu vizinho comprar um q venha com 9? são esses os desenvolvedores de sofá? n conseguem nem estipular um num exato nessa mentira! kkkkk</t>
+  </si>
+  <si>
+    <t>as loja não tem ps5 disponível</t>
+  </si>
+  <si>
+    <t>@valtercicero6 eu acredito que não, nos compramos os jogos! pode ser que arranjem forma de os transferir para a ps4 e ps5? também me parece impossível mas não deixa de ser uma solução.
+tenho a certeza que não vamos ficar sem as coisas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2833,6 +3084,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2874,7 +3131,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2893,6 +3150,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3248,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H561"/>
+  <dimension ref="A1:H571"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A563" workbookViewId="0">
+      <selection activeCell="A562" sqref="A562:B571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7753,6 +8022,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="562" spans="1:2" ht="15" customHeight="1">
+      <c r="A562" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B562" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" ht="15" customHeight="1">
+      <c r="A563" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B563" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" ht="15" customHeight="1">
+      <c r="A564" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B564" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" ht="15" customHeight="1">
+      <c r="A565" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B565" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" ht="15" customHeight="1">
+      <c r="A566" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B566" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A567" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B567" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" ht="15" customHeight="1">
+      <c r="A568" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B568" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" ht="15" customHeight="1">
+      <c r="A569" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="B569" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" ht="15" customHeight="1">
+      <c r="A570" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B570" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" ht="15" customHeight="1">
+      <c r="A571" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B571" s="8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A212" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7763,10 +8112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7776,10 +8125,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="66" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -7788,7 +8137,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7796,7 +8145,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7804,7 +8153,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7812,7 +8161,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7820,7 +8169,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -7828,7 +8177,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7836,7 +8185,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -7844,7 +8193,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -7861,7 +8210,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7869,7 +8218,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7877,7 +8226,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7885,7 +8234,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7893,7 +8242,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -7901,7 +8250,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -7909,7 +8258,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7917,7 +8266,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7925,7 +8274,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7933,7 +8282,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7941,7 +8290,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -7949,7 +8298,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7957,7 +8306,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -7965,7 +8314,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7973,7 +8322,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7981,7 +8330,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7989,7 +8338,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7997,7 +8346,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8005,7 +8354,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -8013,7 +8362,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -8021,7 +8370,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -8029,7 +8378,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8037,7 +8386,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8045,7 +8394,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -8053,7 +8402,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -8061,7 +8410,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -8069,7 +8418,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -8077,7 +8426,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8085,7 +8434,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8093,7 +8442,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8101,7 +8450,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -8109,7 +8458,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8117,7 +8466,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -8125,7 +8474,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8133,7 +8482,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8141,7 +8490,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8149,7 +8498,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8157,7 +8506,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8165,7 +8514,7 @@
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8173,7 +8522,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -8181,7 +8530,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8189,7 +8538,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -8197,7 +8546,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -8205,7 +8554,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8213,7 +8562,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8221,7 +8570,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8229,7 +8578,7 @@
     </row>
     <row r="57" spans="1:2" ht="16.5" customHeight="1">
       <c r="A57" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8237,7 +8586,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8245,7 +8594,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -8253,7 +8602,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8261,7 +8610,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -8269,7 +8618,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8277,7 +8626,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8285,7 +8634,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8293,7 +8642,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8301,7 +8650,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8309,7 +8658,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8317,7 +8666,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8325,7 +8674,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8333,7 +8682,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -8341,7 +8690,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8349,7 +8698,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8357,7 +8706,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8365,7 +8714,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8373,7 +8722,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8381,7 +8730,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8389,7 +8738,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8397,7 +8746,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -8405,7 +8754,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -8413,7 +8762,7 @@
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -8421,7 +8770,7 @@
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8429,7 +8778,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -8437,7 +8786,7 @@
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -8445,7 +8794,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -8453,7 +8802,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -8461,7 +8810,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8469,7 +8818,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -8477,7 +8826,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -8485,7 +8834,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8493,7 +8842,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -8501,7 +8850,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -8509,7 +8858,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8517,7 +8866,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -8525,7 +8874,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -8533,7 +8882,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -8541,7 +8890,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8549,7 +8898,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -8557,7 +8906,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8565,7 +8914,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -8573,7 +8922,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -8581,7 +8930,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8589,7 +8938,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8597,7 +8946,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8605,7 +8954,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8613,7 +8962,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8621,7 +8970,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -8629,7 +8978,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -8637,7 +8986,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -8645,7 +8994,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -8653,7 +9002,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -8661,7 +9010,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -8669,7 +9018,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -8677,7 +9026,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -8685,7 +9034,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -8693,7 +9042,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -8701,7 +9050,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -8718,7 +9067,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -8726,7 +9075,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -8734,7 +9083,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -8742,7 +9091,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -8750,7 +9099,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -8758,7 +9107,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -8766,7 +9115,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -8774,7 +9123,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -8782,7 +9131,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -8790,7 +9139,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -8798,7 +9147,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -8806,7 +9155,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -8814,7 +9163,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -8822,7 +9171,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -8830,7 +9179,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -8847,7 +9196,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -8855,7 +9204,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -8863,7 +9212,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -8871,7 +9220,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -8879,7 +9228,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -8887,7 +9236,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -8895,7 +9244,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -8903,7 +9252,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -8911,7 +9260,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -8919,7 +9268,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8927,7 +9276,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -8935,7 +9284,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -8943,7 +9292,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -8951,7 +9300,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -8959,7 +9308,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -8967,7 +9316,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -8975,7 +9324,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -8983,7 +9332,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -8991,7 +9340,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -8999,7 +9348,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -9007,7 +9356,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -9015,7 +9364,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -9023,7 +9372,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -9031,7 +9380,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -9039,7 +9388,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -9047,7 +9396,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -9055,7 +9404,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -9063,7 +9412,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -9071,7 +9420,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -9090,7 +9439,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -9098,7 +9447,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -9106,7 +9455,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -9114,7 +9463,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -9122,7 +9471,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -9130,7 +9479,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -9138,7 +9487,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -9146,7 +9495,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -9154,7 +9503,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -9162,7 +9511,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -9170,7 +9519,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -9178,7 +9527,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -9186,7 +9535,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -9194,7 +9543,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -9202,7 +9551,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -9210,7 +9559,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -9218,7 +9567,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -9226,7 +9575,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -9234,7 +9583,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -9242,7 +9591,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -9250,7 +9599,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -9258,7 +9607,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -9266,7 +9615,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -9274,7 +9623,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -9282,7 +9631,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -9290,7 +9639,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -9298,7 +9647,7 @@
     </row>
     <row r="190" spans="1:2" ht="15" customHeight="1">
       <c r="A190" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -9306,7 +9655,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -9314,7 +9663,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -9322,7 +9671,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -9330,7 +9679,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -9338,7 +9687,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -9346,7 +9695,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -9354,7 +9703,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -9362,7 +9711,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -9370,7 +9719,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -9378,7 +9727,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -9386,7 +9735,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -9394,7 +9743,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -9402,7 +9751,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -9410,7 +9759,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B204">
         <v>2</v>
@@ -9418,7 +9767,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -9426,7 +9775,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -9434,7 +9783,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -9442,7 +9791,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -9450,7 +9799,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -9458,7 +9807,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -9466,7 +9815,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -9474,7 +9823,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -9482,7 +9831,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -9490,7 +9839,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -9498,7 +9847,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -9506,7 +9855,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -9514,7 +9863,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -9522,7 +9871,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -9530,7 +9879,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -9538,7 +9887,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -9546,7 +9895,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -9554,7 +9903,7 @@
     </row>
     <row r="222" spans="1:2" ht="15" customHeight="1">
       <c r="A222" s="3" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -9562,7 +9911,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -9570,7 +9919,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -9578,7 +9927,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -9586,7 +9935,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -9594,7 +9943,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -9602,7 +9951,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -9610,7 +9959,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -9618,7 +9967,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -9626,7 +9975,7 @@
     </row>
     <row r="231" spans="1:2" ht="15" customHeight="1">
       <c r="A231" s="3" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -9634,7 +9983,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -9642,7 +9991,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -9650,7 +9999,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -9658,7 +10007,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -9666,7 +10015,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -9674,7 +10023,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -9682,7 +10031,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -9690,7 +10039,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -9698,7 +10047,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -9715,7 +10064,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -9723,7 +10072,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -9731,7 +10080,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -9739,7 +10088,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -9747,10 +10096,538 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B246">
         <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="409.6">
+      <c r="A247" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="B247" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="210">
+      <c r="A248" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="B248" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="409.6">
+      <c r="A249" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="B249" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="330">
+      <c r="A250" s="11" t="s">
+        <v>810</v>
+      </c>
+      <c r="B250" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="135">
+      <c r="A251" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="B251" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="409.6">
+      <c r="A252" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="B252" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="315">
+      <c r="A253" s="10" t="s">
+        <v>813</v>
+      </c>
+      <c r="B253" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="360">
+      <c r="A254" s="11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B254" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="180">
+      <c r="A255" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="B255" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="210">
+      <c r="A256" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="B256" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="195">
+      <c r="A257" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="B257" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="315">
+      <c r="A258" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="B258" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="409.6">
+      <c r="A259" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="B259" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="135">
+      <c r="A260" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="B260" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="165">
+      <c r="A261" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="B261" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="409.6">
+      <c r="A262" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="B262" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="330">
+      <c r="A263" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="B263" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="285">
+      <c r="A264" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="B264" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="165">
+      <c r="A265" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="B265" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="255">
+      <c r="A266" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="B266" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="409.6">
+      <c r="A267" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="B267" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="409.6">
+      <c r="A268" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="B268" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="330">
+      <c r="A269" s="11" t="s">
+        <v>829</v>
+      </c>
+      <c r="B269" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="135">
+      <c r="A270" s="10" t="s">
+        <v>830</v>
+      </c>
+      <c r="B270" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="409.6">
+      <c r="A271" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B271" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="409.6">
+      <c r="A272" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B272" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="240">
+      <c r="A273" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B273" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="409.6">
+      <c r="A274" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="B274" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="409.6">
+      <c r="A275" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="B275" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="240">
+      <c r="A276" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="B276" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="409.6">
+      <c r="A277" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B277" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="60">
+      <c r="A278" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B278" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="409.6">
+      <c r="A279" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B279" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="210">
+      <c r="A280" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="B280" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="360">
+      <c r="A281" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="B281" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="225">
+      <c r="A282" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B282" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="240">
+      <c r="A283" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="B283" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="150">
+      <c r="A284" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B284" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="75">
+      <c r="A285" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B285" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="360">
+      <c r="A286" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B286" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="165">
+      <c r="A287" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="B287" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="195">
+      <c r="A288" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="B288" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="375">
+      <c r="A289" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="B289" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="409.6">
+      <c r="A290" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="B290" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="90">
+      <c r="A291" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="B291" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="75">
+      <c r="A292" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B292" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="270">
+      <c r="A293" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B293" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="195">
+      <c r="A294" s="10" t="s">
+        <v>854</v>
+      </c>
+      <c r="B294" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="409.6">
+      <c r="A295" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="B295" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="390">
+      <c r="A296" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="B296" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="75">
+      <c r="A297" s="11" t="s">
+        <v>857</v>
+      </c>
+      <c r="B297" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="390">
+      <c r="A298" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B298" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="409.6">
+      <c r="A299" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="B299" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="390">
+      <c r="A300" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="B300" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="409.6">
+      <c r="A301" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="B301" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="225">
+      <c r="A302" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="B302" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="409.6">
+      <c r="A303" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="B303" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="345">
+      <c r="A304" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B304" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="165">
+      <c r="A305" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="B305" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="375">
+      <c r="A306" s="11" t="s">
+        <v>866</v>
+      </c>
+      <c r="B306" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="195">
+      <c r="A307" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="B307" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="409.6">
+      <c r="A308" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="B308" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="409.6">
+      <c r="A309" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B309" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="75">
+      <c r="A310" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="B310" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="409.6">
+      <c r="A311" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="B311" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="409.6">
+      <c r="A312" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B312" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9759,9 +10636,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9948,16 +10828,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2532829-6C15-49ED-A77C-AD0A4075291A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C159D133-9C0F-4636-8CE9-AFA9553DAB96}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9965,5 +10842,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C159D133-9C0F-4636-8CE9-AFA9553DAB96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2532829-6C15-49ED-A77C-AD0A4075291A}"/>
 </file>